--- a/Base/Teams/Jaguars/2021 Team Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4</t>
-  </si>
-  <si>
-    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8</t>
-  </si>
-  <si>
-    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2</t>
-  </si>
-  <si>
-    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7</t>
+    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2</t>
+  </si>
+  <si>
+    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9</t>
+  </si>
+  <si>
+    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2</t>
+  </si>
+  <si>
+    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63</t>
-  </si>
-  <si>
-    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19</t>
-  </si>
-  <si>
-    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19</t>
-  </si>
-  <si>
-    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44</t>
-  </si>
-  <si>
-    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3</t>
-  </si>
-  <si>
-    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11</t>
+    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64</t>
+  </si>
+  <si>
+    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16</t>
+  </si>
+  <si>
+    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0</t>
+  </si>
+  <si>
+    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40</t>
+  </si>
+  <si>
+    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2">
+        <v>47</v>
+      </c>
+      <c r="G2">
         <v>42</v>
       </c>
-      <c r="G2">
-        <v>38</v>
-      </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>140</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>414</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="G3">
         <v>23</v>
       </c>
-      <c r="F3">
-        <v>54</v>
-      </c>
-      <c r="G3">
-        <v>22</v>
-      </c>
       <c r="H3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="M3">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>258</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -964,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>168</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <v>443</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3">
         <v>22</v>
       </c>
-      <c r="F3">
-        <v>71</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>21</v>
-      </c>
       <c r="I3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="N3">
         <v>13</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>241</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1368,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Jaguars/2021 Team Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2</t>
-  </si>
-  <si>
-    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9</t>
-  </si>
-  <si>
-    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2</t>
-  </si>
-  <si>
-    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1</t>
+    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 -4 3 5 2 2 -1 0 1</t>
+  </si>
+  <si>
+    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2</t>
+  </si>
+  <si>
+    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1</t>
+  </si>
+  <si>
+    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64</t>
-  </si>
-  <si>
-    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16</t>
-  </si>
-  <si>
-    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0</t>
-  </si>
-  <si>
-    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40</t>
-  </si>
-  <si>
-    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0</t>
+    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64 64</t>
+  </si>
+  <si>
+    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16 25</t>
+  </si>
+  <si>
+    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0 16</t>
+  </si>
+  <si>
+    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40 49 32 47 43 54</t>
+  </si>
+  <si>
+    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 0 1 10</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -677,16 +677,16 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>19</v>
@@ -701,13 +701,13 @@
         <v>140</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
         <v>414</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="H3">
-        <v>21</v>
-      </c>
       <c r="I3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="M3">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>317</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -940,31 +940,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>168</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O2">
         <v>11</v>
@@ -996,37 +996,37 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>85</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="F3">
-        <v>78</v>
-      </c>
-      <c r="G3">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>22</v>
-      </c>
       <c r="I3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="M3">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="N3">
         <v>13</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>308</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Jaguars/2021 Team Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 -4 3 5 2 2 -1 0 1</t>
-  </si>
-  <si>
-    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2</t>
-  </si>
-  <si>
-    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1</t>
-  </si>
-  <si>
-    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12</t>
+    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 -4 3 5 2 2 -1 0 1 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10</t>
+  </si>
+  <si>
+    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11</t>
+  </si>
+  <si>
+    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0</t>
+  </si>
+  <si>
+    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64 64</t>
-  </si>
-  <si>
-    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16 25</t>
-  </si>
-  <si>
-    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0 16</t>
-  </si>
-  <si>
-    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40 49 32 47 43 54</t>
-  </si>
-  <si>
-    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 0 1 10</t>
-  </si>
-  <si>
-    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0 0 0 0 0 0</t>
+    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64 64 63 58 55</t>
+  </si>
+  <si>
+    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16 25 98 0 23</t>
+  </si>
+  <si>
+    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0 16 20 16</t>
+  </si>
+  <si>
+    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40 49 32 47 43 54 54 40 54 40 49</t>
+  </si>
+  <si>
+    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 0 1 10 16 3 0 0 14</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0 0 0 0 0 0 -2 48 3 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="M2">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="N2">
         <v>11</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>414</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>134</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -952,10 +952,10 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -964,16 +964,16 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="M2">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="N2">
         <v>11</v>
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="Q2">
-        <v>443</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>92</v>
+      </c>
+      <c r="G3">
+        <v>36</v>
+      </c>
+      <c r="H3">
         <v>26</v>
       </c>
-      <c r="F3">
-        <v>85</v>
-      </c>
-      <c r="G3">
-        <v>35</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
       <c r="I3">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>134</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2">
         <v>31</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -1431,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>

--- a/Base/Teams/Jaguars/2021 Team Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 -4 3 5 2 2 -1 0 1 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10</t>
-  </si>
-  <si>
-    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11</t>
-  </si>
-  <si>
-    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0</t>
-  </si>
-  <si>
-    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43</t>
+    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 -4 3 5 2 2 -1 0 1 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26</t>
+  </si>
+  <si>
+    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4</t>
+  </si>
+  <si>
+    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2</t>
+  </si>
+  <si>
+    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 4 19 2 4 4 6 4 22 2 7 12 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64 64 63 58 55</t>
-  </si>
-  <si>
-    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16 25 98 0 23</t>
-  </si>
-  <si>
-    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0 16 20 16</t>
-  </si>
-  <si>
-    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40 49 32 47 43 54 54 40 54 40 49</t>
-  </si>
-  <si>
-    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 0 1 10 16 3 0 0 14</t>
-  </si>
-  <si>
-    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0 0 0 0 0 0 -2 48 3 0</t>
+    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64 64 63 58 55 63 67 60 68 60 52</t>
+  </si>
+  <si>
+    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16 25 98 0 23 20 2 34 31 29 19</t>
+  </si>
+  <si>
+    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0 16 20 16 23</t>
+  </si>
+  <si>
+    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40 49 32 47 43 54 54 40 54 40 49 59</t>
+  </si>
+  <si>
+    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 0 1 10 16 3 0 0 14 12</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0 0 0 0 0 0 -2 48 3 0 4</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>162</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q2">
         <v>483</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3">
+        <v>52</v>
+      </c>
+      <c r="J3">
         <v>48</v>
-      </c>
-      <c r="J3">
-        <v>45</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="M3">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>373</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>187</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>501</v>
@@ -996,37 +996,37 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="M3">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>378</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,22 +1233,22 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2">
         <v>6</v>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Jaguars/2021 Team Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 -4 3 5 2 2 -1 0 1 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26</t>
-  </si>
-  <si>
-    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4</t>
-  </si>
-  <si>
-    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2</t>
-  </si>
-  <si>
-    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 4 19 2 4 4 6 4 22 2 7 12 5</t>
+    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 -4 3 5 2 2 -1 0 1 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26 4 15 5 2 5 1 5 1 4 2 4 3 4 9 5 4 7</t>
+  </si>
+  <si>
+    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4 7 9 40 2 8 24 11 22 5 4 3 -5 4 16 6 9 28</t>
+  </si>
+  <si>
+    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2 4 1 4 15 7 2 6 9 2 9 7 0 7 5 4 8 2 4 4 7 10 8 -1 4 1 13 5 3 7 4 6 4 8</t>
+  </si>
+  <si>
+    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 4 19 2 4 4 6 4 22 2 7 12 5 8 7 12 6 14 9 17 8 6 8 8 4 12 20 20 17 8 8 8 7 7 13 46 8 9</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64 64 63 58 55 63 67 60 68 60 52</t>
-  </si>
-  <si>
-    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16 25 98 0 23 20 2 34 31 29 19</t>
-  </si>
-  <si>
-    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0 16 20 16 23</t>
-  </si>
-  <si>
-    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40 49 32 47 43 54 54 40 54 40 49 59</t>
-  </si>
-  <si>
-    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 0 1 10 16 3 0 0 14 12</t>
-  </si>
-  <si>
-    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0 0 0 0 0 0 -2 48 3 0 4</t>
+    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64 64 63 58 55 63 67 60 68 60 52 45 69 56</t>
+  </si>
+  <si>
+    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16 25 98 0 23 20 2 34 31 29 19 14 27 9</t>
+  </si>
+  <si>
+    <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0 16 20 16 23 25 18 16 9 20</t>
+  </si>
+  <si>
+    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40 49 32 47 43 54 54 40 54 40 49 59 38 34 47 40</t>
+  </si>
+  <si>
+    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 0 1 10 16 3 0 0 14 12 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0 0 0 0 0 0 -2 48 3 0 4 3</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,25 +668,25 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
+        <v>56</v>
+      </c>
+      <c r="G2">
         <v>53</v>
-      </c>
-      <c r="G2">
-        <v>51</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>162</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O2">
         <v>30</v>
@@ -721,37 +721,37 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>52</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="M3">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>448</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -996,37 +996,37 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>27</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="M3">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N3">
         <v>14</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>437</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2">
         <v>33</v>
@@ -1362,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Jaguars/2021 Team Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 -4 3 5 2 2 -1 0 1 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26 4 15 5 2 5 1 5 1 4 2 4 3 4 9 5 4 7</t>
-  </si>
-  <si>
-    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4 7 9 40 2 8 24 11 22 5 4 3 -5 4 16 6 9 28</t>
-  </si>
-  <si>
-    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2 4 1 4 15 7 2 6 9 2 9 7 0 7 5 4 8 2 4 4 7 10 8 -1 4 1 13 5 3 7 4 6 4 8</t>
-  </si>
-  <si>
-    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 4 19 2 4 4 6 4 22 2 7 12 5 8 7 12 6 14 9 17 8 6 8 8 4 12 20 20 17 8 8 8 7 7 13 46 8 9</t>
+    <t>9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 4 4 2 0 6 2 2 1 6 4 -1 12 7 11 5 1 6 -1 5 4 -1 2 -2 4 -2 4 5 4 18 -1 6 17 8 10 3 21 6 6 4 4 4 10 9 5 11 3 6 2 4 11 2 11 12 6 1 3 5 5 20 1 3 0 7 2 3 0 8 0 2 4 1 4 2 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 4 14 4 1 3 2 4 4 3 4 8 8 1 4 3 7 4 5 6 3 2 3 -4 -1 15 1 -2 3 0 4 11 7 -1 5 1 6 2 8 2 0 -2 3 5 5 1 2 0 66 3 5 12 4 5 -1 8 8 10 3 8 14 0 18 3 1 1 1 2 -1 1 7 10 -3 2 7 2 2 4 4 4 4 4 6 1 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 -4 3 5 2 2 -1 0 1 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 3 0 9 3 1 1 6 6 6 0 8 0 2 4 3 2 4 7 1 6 3 9 7 2 3 6 1 0 26 4 15 5 2 5 1 5 1 4 2 4 3 4 9 5 4 7 3 -1 1 2 1 4 2 4 1 12 8 2 0 26 4 1 0 2 4 5 1 6 0 6 3 -1 6</t>
+  </si>
+  <si>
+    <t>13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 4 24 7 13 25 -2 -8 6 5 19 0 6 6 13 6 0 8 14 11 20 7 9 12 13 5 12 11 6 12 2 12 9 13 6 9 8 17 7 12 10 7 7 52 7 4 27 5 20 -2 7 11 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 6 1 7 5 17 9 10 13 7 7 10 3 9 7 0 7 6 3 6 11 9 8 11 7 4 5 9 10 9 5 8 11 4 6 12 -1 6 7 5 5 4 5 28 9 4 16 9 0 12 24 15 9 5 6 13 18 0 23 4 14 9 9 9 6 6 18 16 6 8 15 7 3 7 11 13 22 8 9 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 1 4 12 9 9 8 17 10 11 1 7 5 10 25 19 11 13 22 18 17 8 7 6 6 4 7 9 40 2 8 24 11 22 5 4 3 -5 4 16 6 9 28 17 6 12 16 8 15 7 2 9 1 11 6 18 29 7 10 14 12 8 1 6 5 3</t>
+  </si>
+  <si>
+    <t>6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 0 5 9 3 2 7 0 1 -6 0 3 3 16 2 2 5 0 5 8 -1 3 14 2 0 3 6 5 2 5 1 1 2 0 4 7 6 6 1 9 4 2 4 4 4 0 8 11 4 0 0 -1 3 1 1 3 -3 2 2 2 7 1 0 4 3 9 4 11 5 7 0 1 4 0 1 8 1 2 4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 12 9 2 5 0 0 0 2 7 5 -5 4 3 -5 2 2 3 7 6 4 2 -2 -2 7 15 12 -3 1 22 4 -1 1 7 5 4 2 3 -1 34 0 8 3 7 20 5 8 4 4 9 3 1 3 6 4 0 6 0 -1 3 2 0 1 4 4 1 2 2 2 4 0 12 3 2 9 0 1 3 11 -1 25 3 5 -1 1 0 4 4 3 11 21 -2 12 0 5 2 4 4 -1 3 2 3 7 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 8 3 3 52 1 6 3 14 3 3 1 4 5 0 14 9 4 12 -1 3 20 7 5 10 0 11 2 0 3 1 38 3 3 2 4 1 4 15 7 2 6 9 2 9 7 0 7 5 4 8 2 4 4 7 10 8 -1 4 1 13 5 3 7 4 6 4 8 8 1 2 3 0 10 -2 6 5 2 8 23 1 13 8</t>
+  </si>
+  <si>
+    <t>10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 6 13 14 8 6 6 7 4 10 16 33 15 12 9 55 14 5 10 11 9 0 4 11 14 6 7 7 5 28 9 7 8 6 10 10 -2 12 5 6 34 8 7 9 18 33 13 1 36 3 7 19 7 33 -2 15 18 0 10 21 0 44 22 25 12 1 11 8 4 8 12 7 31 12 15 9 7 25 10 12 25 10 22 22 8 14 26 20 6 7 1 14 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 9 27 1 5 8 5 9 5 8 16 7 28 5 4 8 5 28 5 9 3 7 1 16 0 4 9 9 14 1 7 2 9 11 13 7 9 5 22 8 12 15 3 5 -2 28 1 7 19 5 14 3 4 7 5 7 12 2 18 15 9 3 6 10 6 15 -5 1 -3 10 16 3 27 12 9 7 8 13 34 7 6 9 9 23 15 7 13 4 11 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 4 19 2 4 4 6 4 22 2 7 12 5 8 7 12 6 14 9 17 8 6 8 8 4 12 20 20 17 8 8 8 7 7 13 46 8 9 11 33 6 9 11 4 7 10 3 18 4 10 8 21 9 12</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64 64 63 58 55 63 67 60 68 60 52 45 69 56</t>
-  </si>
-  <si>
-    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16 25 98 0 23 20 2 34 31 29 19 14 27 9</t>
+    <t>65 66 70 58 64 62 63 64 62 63 66 60 64 61 61 57 63 62 63 64 64 64 63 58 55 63 67 60 68 60 52 45 69 56 66 65 61</t>
+  </si>
+  <si>
+    <t>24 23 19 24 18 20 21 45 33 28 23 27 19 26 21 24 22 26 19 65 16 25 98 0 23 20 2 34 31 29 19 14 27 9 40 18 41</t>
   </si>
   <si>
     <t>18 2 18 27 24 16 24 21 23 27 5 20 15 13 25 22 21 28 19 20 25 23 28 29 26 19 24 0 16 20 16 23 25 18 16 9 20</t>
   </si>
   <si>
-    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40 49 32 47 43 54 54 40 54 40 49 59 38 34 47 40</t>
-  </si>
-  <si>
-    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 0 1 10 16 3 0 0 14 12 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0 0 0 0 0 0 -2 48 3 0 4 3</t>
+    <t>55 52 42 49 41 58 44 63 56 64 55 44 47 56 36 43 43 57 40 42 38 45 27 37 43 49 51 54 41 53 48 33 46 42 48 46 42 41 54 59 51 52 51 39 44 42 44 68 53 31 55 40 49 32 47 43 54 54 40 54 40 49 59 38 34 47 40 45 50 57</t>
+  </si>
+  <si>
+    <t>0 8 0 0 0 9 0 4 0 25 27 0 0 0 0 12 0 -1 0 0 0 0 0 0 0 0 0 20 0 0 0 0 0 0 0 0 11 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 2 0 0 1 10 16 3 0 0 14 12 0 0 0 0 0 0 7</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 2 0 0 0 0 0 10 0 0 0 0 0 0 0 0 0 0 0 0 0 13 0 0 4 14 0 0 0 0 0 8 6 10 12 0 0 0 18 0 11 0 0 0 0 0 0 0 0 -2 48 3 0 4 3 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,10 +665,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -677,40 +677,40 @@
         <v>11</v>
       </c>
       <c r="F2">
+        <v>61</v>
+      </c>
+      <c r="G2">
         <v>56</v>
-      </c>
-      <c r="G2">
-        <v>53</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="M2">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>483</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>177</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -964,28 +964,28 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="N2">
         <v>12</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>501</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>108</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
         <v>32</v>
       </c>
-      <c r="F3">
-        <v>105</v>
-      </c>
-      <c r="G3">
-        <v>39</v>
-      </c>
-      <c r="H3">
-        <v>27</v>
-      </c>
       <c r="I3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>173</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
         <v>20</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L2">
         <v>33</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1431,13 +1431,13 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
